--- a/Learn-Typescript/excel-rpt-proj/src/test-report.xlsx
+++ b/Learn-Typescript/excel-rpt-proj/src/test-report.xlsx
@@ -1,18 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5F65F68-0D9B-4F7D-94F0-9CB0ACBF7230}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet sheetId="1" name="Test Report" state="visible" r:id="rId4"/>
-    <sheet sheetId="2" name="Summary" state="visible" r:id="rId5"/>
+    <sheet name="Test Report" sheetId="1" r:id="rId1"/>
+    <sheet name="Summary" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1262" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1260" uniqueCount="362">
   <si>
     <t>Test Suite</t>
   </si>
@@ -44,7 +48,7 @@
     <t>2025-03-07 10:05:21</t>
   </si>
   <si>
-    <t xml:space="preserve">Error: [2mexpect([22m[31mjest.fn()[39m[2m).[22mtoHaveBeenCalledWith[2m([22m[32m...expected[39m[2m)[22m
+    <t>Error: [2mexpect([22m[31mjest.fn()[39m[2m).[22mtoHaveBeenCalledWith[2m([22m[32m...expected[39m[2m)[22m
 Expected: [32m"Error in LabelAnodiam: 'labelText' = '101' is invalid. It should be a valid non-null string for best UI rendering!"[39m
 Number of calls: [31m0[39m
     at Object.toHaveBeenCalledWith (D:\SyanGypsee\ComponentsV1.0\UI\PackageDev\test\ValidationCalls.test.js:16:24)
@@ -103,7 +107,7 @@
     <t>renders with valid color #FF0000</t>
   </si>
   <si>
-    <t xml:space="preserve">Error: Unable to find an element with testID: label
+    <t>Error: Unable to find an element with testID: label
 [36m&lt;View[39m
   [33mtestID[39m=[32m"label-container"[39m
 [36m&gt;[39m
@@ -130,7 +134,7 @@
     at Object.worker (D:\SyanGypsee\ComponentsV1.0\UI\PackageDev\node_modules\jest-runner\build\testWorker.js:106:12)</t>
   </si>
   <si>
-    <t xml:space="preserve">Error: Unable to find an element with testID: label
+    <t>Error: Unable to find an element with testID: label
 [36m&lt;View[39m
   [33mtestID[39m=[32m"label-container"[39m
 [36m&gt;[39m
@@ -160,7 +164,7 @@
     <t>renders with invalid color red and logs warning</t>
   </si>
   <si>
-    <t xml:space="preserve">Error: Unable to find an element with testID: label
+    <t>Error: Unable to find an element with testID: label
 [36m&lt;View[39m
   [33mtestID[39m=[32m"label-container"[39m
 [36m&gt;[39m
@@ -197,7 +201,7 @@
     <t>renders with null color in Light mode as #D76B3B</t>
   </si>
   <si>
-    <t xml:space="preserve">Error: Unable to find an element with testID: label
+    <t>Error: Unable to find an element with testID: label
 [36m&lt;View[39m
   [33mtestID[39m=[32m"label-container"[39m
 [36m&gt;[39m
@@ -231,7 +235,7 @@
     <t>renders with null color in Dark mode as #FFAC73</t>
   </si>
   <si>
-    <t xml:space="preserve">Error: Unable to find an element with testID: label
+    <t>Error: Unable to find an element with testID: label
 [36m&lt;View[39m
   [33mtestID[39m=[32m"label-container"[39m
 [36m&gt;[39m
@@ -265,7 +269,7 @@
     <t>renders with absent color prop in Light mode as #D76B3B</t>
   </si>
   <si>
-    <t xml:space="preserve">Error: Unable to find an element with testID: label
+    <t>Error: Unable to find an element with testID: label
 [36m&lt;View[39m
   [33mtestID[39m=[32m"label-container"[39m
 [36m&gt;[39m
@@ -295,7 +299,7 @@
     <t>renders with absent color prop in Dark mode as #FFAC73</t>
   </si>
   <si>
-    <t xml:space="preserve">Error: Unable to find an element with testID: label
+    <t>Error: Unable to find an element with testID: label
 [36m&lt;View[39m
   [33mtestID[39m=[32m"label-container"[39m
 [36m&gt;[39m
@@ -361,7 +365,7 @@
     <t>should render with Anodiam-Regular for invalid fontFamily "abcfont" and console warning</t>
   </si>
   <si>
-    <t xml:space="preserve">Error: [2mexpect([22m[31mreceived[39m[2m).[22mtoBe[2m([22m[32mexpected[39m[2m) // Object.is equality[22m
+    <t>Error: [2mexpect([22m[31mreceived[39m[2m).[22mtoBe[2m([22m[32mexpected[39m[2m) // Object.is equality[22m
 Expected: [32m"Anodiam-Regular"[39m
 Received: [31m"abcfont"[39m
     at Object.toBe (D:\SyanGypsee\ComponentsV1.0\UI\PackageDev\test\LabelAnodiam.test.js:214:44)
@@ -408,7 +412,7 @@
     <t>renders with normal fontWeight and console warning for invalid string "humongous"</t>
   </si>
   <si>
-    <t xml:space="preserve">Error: [2mexpect([22m[31mreceived[39m[2m).[22mtoBe[2m([22m[32mexpected[39m[2m) // Object.is equality[22m
+    <t>Error: [2mexpect([22m[31mreceived[39m[2m).[22mtoBe[2m([22m[32mexpected[39m[2m) // Object.is equality[22m
 Expected: [32m"normal"[39m
 Received: [31m"humongous"[39m
     at Object.toBe (D:\SyanGypsee\ComponentsV1.0\UI\PackageDev\test\LabelAnodiam.test.js:280:44)
@@ -431,7 +435,7 @@
     <t>renders with normal fontWeight and console warning for invalid string "extrabold"</t>
   </si>
   <si>
-    <t xml:space="preserve">Error: [2mexpect([22m[31mreceived[39m[2m).[22mtoBe[2m([22m[32mexpected[39m[2m) // Object.is equality[22m
+    <t>Error: [2mexpect([22m[31mreceived[39m[2m).[22mtoBe[2m([22m[32mexpected[39m[2m) // Object.is equality[22m
 Expected: [32m"normal"[39m
 Received: [31m"extrabold"[39m
     at Object.toBe (D:\SyanGypsee\ComponentsV1.0\UI\PackageDev\test\LabelAnodiam.test.js:289:44)
@@ -454,7 +458,7 @@
     <t>renders with normal fontWeight and console warning for invalid string "black"</t>
   </si>
   <si>
-    <t xml:space="preserve">Error: [2mexpect([22m[31mreceived[39m[2m).[22mtoBe[2m([22m[32mexpected[39m[2m) // Object.is equality[22m
+    <t>Error: [2mexpect([22m[31mreceived[39m[2m).[22mtoBe[2m([22m[32mexpected[39m[2m) // Object.is equality[22m
 Expected: [32m"normal"[39m
 Received: [31m"black"[39m
     at Object.toBe (D:\SyanGypsee\ComponentsV1.0\UI\PackageDev\test\LabelAnodiam.test.js:298:44)
@@ -498,7 +502,7 @@
     <t>renders with default "normal" fonStyle for invalid fontStyle "spanish" and shows warning</t>
   </si>
   <si>
-    <t xml:space="preserve">Error: [2mexpect([22m[31mreceived[39m[2m).[22mtoBe[2m([22m[32mexpected[39m[2m) // Object.is equality[22m
+    <t>Error: [2mexpect([22m[31mreceived[39m[2m).[22mtoBe[2m([22m[32mexpected[39m[2m) // Object.is equality[22m
 Expected: [32m"normal"[39m
 Received: [31m"spanish"[39m
     at Object.toBe (D:\SyanGypsee\ComponentsV1.0\UI\PackageDev\test\LabelAnodiam.test.js:358:43)
@@ -542,7 +546,7 @@
     <t>renders with "none" textDecorationLine for invalid textDecorationLine "jazzy" and shows console warning</t>
   </si>
   <si>
-    <t xml:space="preserve">Error: [2mexpect([22m[31mreceived[39m[2m).[22mtoBe[2m([22m[32mexpected[39m[2m) // Object.is equality[22m
+    <t>Error: [2mexpect([22m[31mreceived[39m[2m).[22mtoBe[2m([22m[32mexpected[39m[2m) // Object.is equality[22m
 Expected: [32m"none"[39m
 Received: [31m"jazzy"[39m
     at Object.toBe (D:\SyanGypsee\ComponentsV1.0\UI\PackageDev\test\LabelAnodiam.test.js:416:54)
@@ -592,7 +596,7 @@
     <t>renders with 0 margin when margin is 0</t>
   </si>
   <si>
-    <t xml:space="preserve">Error: [2mexpect([22m[31mreceived[39m[2m).[22mtoBe[2m([22m[32mexpected[39m[2m) // Object.is equality[22m
+    <t>Error: [2mexpect([22m[31mreceived[39m[2m).[22mtoBe[2m([22m[32mexpected[39m[2m) // Object.is equality[22m
 Expected: [32m0[39m
 Received: [31mundefined[39m
     at Object.toBe (D:\SyanGypsee\ComponentsV1.0\UI\PackageDev\test\LabelAnodiam.test.js:477:40)
@@ -615,7 +619,7 @@
     <t>renders with 100 margin when margin is 100</t>
   </si>
   <si>
-    <t xml:space="preserve">Error: [2mexpect([22m[31mreceived[39m[2m).[22mtoBe[2m([22m[32mexpected[39m[2m) // Object.is equality[22m
+    <t>Error: [2mexpect([22m[31mreceived[39m[2m).[22mtoBe[2m([22m[32mexpected[39m[2m) // Object.is equality[22m
 Expected: [32m100[39m
 Received: [31mundefined[39m
     at Object.toBe (D:\SyanGypsee\ComponentsV1.0\UI\PackageDev\test\LabelAnodiam.test.js:483:40)
@@ -638,7 +642,7 @@
     <t>renders with 0 margin and shows warning when margin is 103</t>
   </si>
   <si>
-    <t xml:space="preserve">Error: [2mexpect([22m[31mreceived[39m[2m).[22mtoBe[2m([22m[32mexpected[39m[2m) // Object.is equality[22m
+    <t>Error: [2mexpect([22m[31mreceived[39m[2m).[22mtoBe[2m([22m[32mexpected[39m[2m) // Object.is equality[22m
 Expected: [32m103[39m
 Received: [31mundefined[39m
     at Object.toBe (D:\SyanGypsee\ComponentsV1.0\UI\PackageDev\test\LabelAnodiam.test.js:489:40)
@@ -661,7 +665,7 @@
     <t>renders with -1 margin and shows warning when margin is -1</t>
   </si>
   <si>
-    <t xml:space="preserve">Error: [2mexpect([22m[31mreceived[39m[2m).[22mtoBe[2m([22m[32mexpected[39m[2m) // Object.is equality[22m
+    <t>Error: [2mexpect([22m[31mreceived[39m[2m).[22mtoBe[2m([22m[32mexpected[39m[2m) // Object.is equality[22m
 Expected: [32m-1[39m
 Received: [31mundefined[39m
     at Object.toBe (D:\SyanGypsee\ComponentsV1.0\UI\PackageDev\test\LabelAnodiam.test.js:498:40)
@@ -687,7 +691,7 @@
     <t>renders with 0 margin when margin is null</t>
   </si>
   <si>
-    <t xml:space="preserve">Error: [2mexpect([22m[31mreceived[39m[2m).[22mtoBe[2m([22m[32mexpected[39m[2m) // Object.is equality[22m
+    <t>Error: [2mexpect([22m[31mreceived[39m[2m).[22mtoBe[2m([22m[32mexpected[39m[2m) // Object.is equality[22m
 Expected: [32m0[39m
 Received: [31mundefined[39m
     at Object.toBe (D:\SyanGypsee\ComponentsV1.0\UI\PackageDev\test\LabelAnodiam.test.js:510:40)
@@ -710,7 +714,7 @@
     <t>renders with 0 margin when margin is undefined</t>
   </si>
   <si>
-    <t xml:space="preserve">Error: [2mexpect([22m[31mreceived[39m[2m).[22mtoBe[2m([22m[32mexpected[39m[2m) // Object.is equality[22m
+    <t>Error: [2mexpect([22m[31mreceived[39m[2m).[22mtoBe[2m([22m[32mexpected[39m[2m) // Object.is equality[22m
 Expected: [32m0[39m
 Received: [31mundefined[39m
     at Object.toBe (D:\SyanGypsee\ComponentsV1.0\UI\PackageDev\test\LabelAnodiam.test.js:516:40)
@@ -733,7 +737,7 @@
     <t>renders with 0 margin when margin is absent</t>
   </si>
   <si>
-    <t xml:space="preserve">Error: [2mexpect([22m[31mreceived[39m[2m).[22mtoBe[2m([22m[32mexpected[39m[2m) // Object.is equality[22m
+    <t>Error: [2mexpect([22m[31mreceived[39m[2m).[22mtoBe[2m([22m[32mexpected[39m[2m) // Object.is equality[22m
 Expected: [32m0[39m
 Received: [31mundefined[39m
     at Object.toBe (D:\SyanGypsee\ComponentsV1.0\UI\PackageDev\test\LabelAnodiam.test.js:522:40)
@@ -756,7 +760,7 @@
     <t>renders with "right" textAlign</t>
   </si>
   <si>
-    <t xml:space="preserve">Error: Unable to find an element with testID: label
+    <t>Error: Unable to find an element with testID: label
 [36m&lt;View[39m
   [33mtestID[39m=[32m"label-container"[39m
 [36m&gt;[39m
@@ -786,7 +790,7 @@
     <t>renders with "left" textAlign</t>
   </si>
   <si>
-    <t xml:space="preserve">Error: Unable to find an element with testID: label
+    <t>Error: Unable to find an element with testID: label
 [36m&lt;View[39m
   [33mtestID[39m=[32m"label-container"[39m
 [36m&gt;[39m
@@ -819,7 +823,7 @@
     <t>renders with "auto" textAlign and logs console warning for invalid string textAlign</t>
   </si>
   <si>
-    <t xml:space="preserve">Error: Unable to find an element with testID: label
+    <t>Error: Unable to find an element with testID: label
 [36m&lt;View[39m
   [33mtestID[39m=[32m"label-container"[39m
 [36m&gt;[39m
@@ -849,7 +853,7 @@
     <t>renders with "auto" textAlign when textAlign is null</t>
   </si>
   <si>
-    <t xml:space="preserve">Error: Unable to find an element with testID: label
+    <t>Error: Unable to find an element with testID: label
 [36m&lt;View[39m
   [33mtestID[39m=[32m"label-container"[39m
 [36m&gt;[39m
@@ -879,7 +883,7 @@
     <t>renders with "auto" textAlign when textAlign is undefined</t>
   </si>
   <si>
-    <t xml:space="preserve">Error: Unable to find an element with testID: label
+    <t>Error: Unable to find an element with testID: label
 [36m&lt;View[39m
   [33mtestID[39m=[32m"label-container"[39m
 [36m&gt;[39m
@@ -909,7 +913,7 @@
     <t>renders with "auto" textAlign when textAlign is absent</t>
   </si>
   <si>
-    <t xml:space="preserve">Error: Unable to find an element with testID: label
+    <t>Error: Unable to find an element with testID: label
 [36m&lt;View[39m
   [33mtestID[39m=[32m"label-container"[39m
 [36m&gt;[39m
@@ -951,7 +955,7 @@
     <t>renders with "center" justifyContent and logs console warning for invalid string justifyContent</t>
   </si>
   <si>
-    <t xml:space="preserve">Error: [2mexpect([22m[31mreceived[39m[2m).[22mtoBe[2m([22m[32mexpected[39m[2m) // Object.is equality[22m
+    <t>Error: [2mexpect([22m[31mreceived[39m[2m).[22mtoBe[2m([22m[32mexpected[39m[2m) // Object.is equality[22m
 Expected: [32m"center"[39m
 Received: [31m"justified"[39m
     at Object.toBe (D:\SyanGypsee\ComponentsV1.0\UI\PackageDev\test\LabelAnodiam.test.js:601:48)
@@ -995,7 +999,7 @@
     <t>alignItems 'alignoutside' - console warning and renders with 'center'</t>
   </si>
   <si>
-    <t xml:space="preserve">Error: [2mexpect([22m[31melement[39m[2m).toHaveStyle()[22m
+    <t>Error: [2mexpect([22m[31melement[39m[2m).toHaveStyle()[22m
 [32m- Expected[39m
 [31m+ Received[39m
 [32m- alignItems: center;[39m
@@ -1032,7 +1036,7 @@
     <t>renders primary button when buttonType is "primary"</t>
   </si>
   <si>
-    <t xml:space="preserve">Error: Unable to find an element with role: button
+    <t>Error: Unable to find an element with role: button
 [36m&lt;View[39m
   [33maccessible[39m=[32m{true}[39m
 [36m&gt;[39m
@@ -1066,7 +1070,7 @@
     <t>renders secondary button when buttonType is "secondary"</t>
   </si>
   <si>
-    <t xml:space="preserve">Error: Unable to find an element with role: button
+    <t>Error: Unable to find an element with role: button
 [36m&lt;View[39m
   [33maccessible[39m=[32m{true}[39m
 [36m&gt;[39m
@@ -1099,7 +1103,7 @@
     <t>renders hyperlink button when buttonType is "hyperlink"</t>
   </si>
   <si>
-    <t xml:space="preserve">Error: Unable to find an element with role: button
+    <t>Error: Unable to find an element with role: button
 [36m&lt;View[39m
   [33maccessible[39m=[32m{true}[39m
 [36m&gt;[39m
@@ -1132,7 +1136,7 @@
     <t>renders primary button for invalid buttonType values</t>
   </si>
   <si>
-    <t xml:space="preserve">Error: Unable to find an element with role: button
+    <t>Error: Unable to find an element with role: button
 [36m&lt;View[39m
   [33maccessible[39m=[32m{true}[39m
 [36m&gt;[39m
@@ -1167,7 +1171,7 @@
     <t>renders button with buttonText</t>
   </si>
   <si>
-    <t xml:space="preserve">Error: Unable to find an element with role: button
+    <t>Error: Unable to find an element with role: button
 [36m&lt;View[39m
   [33maccessible[39m=[32m{true}[39m
 [36m&gt;[39m
@@ -1200,7 +1204,7 @@
     <t>renders button with empty label and console warning for invalid buttonText</t>
   </si>
   <si>
-    <t xml:space="preserve">Error: Unable to find an element with role: button
+    <t>Error: Unable to find an element with role: button
 [36m&lt;View[39m
   [33maccessible[39m=[32m{true}[39m
 [36m&gt;[39m
@@ -1231,7 +1235,7 @@
     <t>renders button with default label for null, undefined, or absent buttonText</t>
   </si>
   <si>
-    <t xml:space="preserve">Error: Unable to find an element with role: button
+    <t>Error: Unable to find an element with role: button
 [36m&lt;View[39m
   [33maccessible[39m=[32m{true}[39m
 [36m&gt;[39m
@@ -1266,7 +1270,7 @@
     <t>renders button with valid color</t>
   </si>
   <si>
-    <t xml:space="preserve">Error: Unable to find an element with role: button
+    <t>Error: Unable to find an element with role: button
 [36m&lt;View[39m
   [33maccessible[39m=[32m{true}[39m
 [36m&gt;[39m
@@ -1299,7 +1303,7 @@
     <t>renders button with default color for invalid color</t>
   </si>
   <si>
-    <t xml:space="preserve">Error: Unable to find an element with role: button
+    <t>Error: Unable to find an element with role: button
 [36m&lt;View[39m
   [33maccessible[39m=[32m{true}[39m
 [36m&gt;[39m
@@ -1334,7 +1338,7 @@
     <t>renders button with dark mode color</t>
   </si>
   <si>
-    <t xml:space="preserve">Error: Unable to find an element with role: button
+    <t>Error: Unable to find an element with role: button
 [36m&lt;View[39m
   [33maccessible[39m=[32m{true}[39m
 [36m&gt;[39m
@@ -1367,7 +1371,7 @@
     <t>should render Secondary button with color=null</t>
   </si>
   <si>
-    <t xml:space="preserve">Error: Unable to find an element with testID: button-anodiam
+    <t>Error: Unable to find an element with testID: button-anodiam
 [36m&lt;View[39m
   [33maccessible[39m=[32m{true}[39m
 [36m&gt;[39m
@@ -1481,7 +1485,7 @@
     <t>should render primary button with margin=undefined</t>
   </si>
   <si>
-    <t xml:space="preserve">Error: Unable to find an element with testID: button-anodiam
+    <t>Error: Unable to find an element with testID: button-anodiam
 [36m&lt;View[39m
   [33maccessible[39m=[32m{true}[39m
 [36m&gt;[39m
@@ -1514,7 +1518,7 @@
     <t>renders with 50 borderRadius when type is primary</t>
   </si>
   <si>
-    <t xml:space="preserve">Error: Unable to find an element with testID: button-anodiam
+    <t>Error: Unable to find an element with testID: button-anodiam
 [36m&lt;View[39m
   [33maccessible[39m=[32m{true}[39m
 [36m&gt;[39m
@@ -1560,7 +1564,7 @@
     <t>renders with 0 borderRadius when null is passed</t>
   </si>
   <si>
-    <t xml:space="preserve">Error: Unable to find an element with testID: button-anodiam
+    <t>Error: Unable to find an element with testID: button-anodiam
 [36m&lt;View[39m
   [33maccessible[39m=[32m{true}[39m
 [36m&gt;[39m
@@ -1597,7 +1601,7 @@
     <t>renders with fontFamily Anodiam-Bold</t>
   </si>
   <si>
-    <t xml:space="preserve">Error: Unable to find an element with testID: button-anodiam
+    <t>Error: Unable to find an element with testID: button-anodiam
 [36m&lt;View[39m
   [33maccessible[39m=[32m{true}[39m
 [36m&gt;[39m
@@ -1634,7 +1638,7 @@
     <t>warns for invalid fontFamily 123456</t>
   </si>
   <si>
-    <t xml:space="preserve">Error: Error in ButtonAnodiam: 'fontFamily' = '123456' is invalid. It should be a valid non-null string for best UI rendering!
+    <t>Error: Error in ButtonAnodiam: 'fontFamily' = '123456' is invalid. It should be a valid non-null string for best UI rendering!
     at raiseIssue (D:\SyanGypsee\ComponentsV1.0\UI\PackageDev\ui\utils\Validation.ts:51:13)
     at raiseIssue (D:\SyanGypsee\ComponentsV1.0\UI\PackageDev\ui\utils\Validation.ts:174:13)
     at Array.forEach (&lt;anonymous&gt;)
@@ -1677,7 +1681,7 @@
     <t>renders with default fontFamily when null is passed</t>
   </si>
   <si>
-    <t xml:space="preserve">Error: Unable to find an element with testID: button-anodiam
+    <t>Error: Unable to find an element with testID: button-anodiam
 [36m&lt;View[39m
   [33maccessible[39m=[32m{true}[39m
 [36m&gt;[39m
@@ -1714,7 +1718,7 @@
     <t>renders with valid fontSize 8</t>
   </si>
   <si>
-    <t xml:space="preserve">Error: Unable to find an element with testID: button-anodiam
+    <t>Error: Unable to find an element with testID: button-anodiam
 [36m&lt;View[39m
   [33maccessible[39m=[32m{true}[39m
 [36m&gt;[39m
@@ -1751,7 +1755,7 @@
     <t>warns for invalid fontSize 3</t>
   </si>
   <si>
-    <t xml:space="preserve">Error: Error in ButtonAnodiam: 'fontSize' = '3' is invalid. It should be a valid positive number between 8 and 32 for best UI rendering!
+    <t>Error: Error in ButtonAnodiam: 'fontSize' = '3' is invalid. It should be a valid positive number between 8 and 32 for best UI rendering!
     at raiseIssue (D:\SyanGypsee\ComponentsV1.0\UI\PackageDev\ui\utils\Validation.ts:51:13)
     at raiseIssue (D:\SyanGypsee\ComponentsV1.0\UI\PackageDev\ui\utils\Validation.ts:195:13)
     at Array.forEach (&lt;anonymous&gt;)
@@ -1794,7 +1798,7 @@
     <t>warns for invalid fontSize "16"</t>
   </si>
   <si>
-    <t xml:space="preserve">Error: Error in ButtonAnodiam: 'fontSize' = '16' is invalid. It should be a valid positive number between 8 and 32 for best UI rendering!
+    <t>Error: Error in ButtonAnodiam: 'fontSize' = '16' is invalid. It should be a valid positive number between 8 and 32 for best UI rendering!
     at raiseIssue (D:\SyanGypsee\ComponentsV1.0\UI\PackageDev\ui\utils\Validation.ts:51:13)
     at raiseIssue (D:\SyanGypsee\ComponentsV1.0\UI\PackageDev\ui\utils\Validation.ts:195:13)
     at Array.forEach (&lt;anonymous&gt;)
@@ -1834,7 +1838,7 @@
     <t>renders with default fontSize 16 when null is passed</t>
   </si>
   <si>
-    <t xml:space="preserve">Error: Unable to find an element with testID: button-anodiam
+    <t>Error: Unable to find an element with testID: button-anodiam
 [36m&lt;View[39m
   [33maccessible[39m=[32m{true}[39m
 [36m&gt;[39m
@@ -1871,7 +1875,7 @@
     <t>primary - fontSize absent renders with fontSize 16</t>
   </si>
   <si>
-    <t xml:space="preserve">Error: Unable to find an element with testID: button-anodiam
+    <t>Error: Unable to find an element with testID: button-anodiam
 [36m&lt;View[39m
   [33maccessible[39m=[32m{true}[39m
 [36m&gt;[39m
@@ -1911,7 +1915,7 @@
     <t>bold - fontWeight renders correctly</t>
   </si>
   <si>
-    <t xml:space="preserve">Error: Unable to find an element with testID: button-anodiam
+    <t>Error: Unable to find an element with testID: button-anodiam
 [36m&lt;View[39m
   [33maccessible[39m=[32m{true}[39m
 [36m&gt;[39m
@@ -1948,7 +1952,7 @@
     <t>200 - Invalid fontWeight renders normal and logs warning</t>
   </si>
   <si>
-    <t xml:space="preserve">Error: Error in ButtonAnodiam: 'fontWeight' = '200' is invalid. It should be a valid permitted value from react-native's TextStyle['fontWeight']: "bold" | "normal" | "100" | "200" | "300" | "400" | "500" | "600" | "700" | "800" | "900" | 100 | 200 | 300 | 400 | 500 | 600 | 700 | 800 | 900 | "ultralight" | "thin" | "light" | "medium" | "semibold" | "demibold" | "extrabold" | "heavy" | "black" for best UI rendering!
+    <t>Error: Error in ButtonAnodiam: 'fontWeight' = '200' is invalid. It should be a valid permitted value from react-native's TextStyle['fontWeight']: "bold" | "normal" | "100" | "200" | "300" | "400" | "500" | "600" | "700" | "800" | "900" | 100 | 200 | 300 | 400 | 500 | 600 | 700 | 800 | 900 | "ultralight" | "thin" | "light" | "medium" | "semibold" | "demibold" | "extrabold" | "heavy" | "black" for best UI rendering!
     at raiseIssue (D:\SyanGypsee\ComponentsV1.0\UI\PackageDev\ui\utils\Validation.ts:51:13)
     at raiseIssue (D:\SyanGypsee\ComponentsV1.0\UI\PackageDev\ui\utils\Validation.ts:215:13)
     at Array.forEach (&lt;anonymous&gt;)
@@ -1988,7 +1992,7 @@
     <t>150 - Invalid fontWeight renders normal and logs warning</t>
   </si>
   <si>
-    <t xml:space="preserve">Error: Error in ButtonAnodiam: 'fontWeight' = '150' is invalid. It should be a valid permitted value from react-native's TextStyle['fontWeight']: "bold" | "normal" | "100" | "200" | "300" | "400" | "500" | "600" | "700" | "800" | "900" | 100 | 200 | 300 | 400 | 500 | 600 | 700 | 800 | 900 | "ultralight" | "thin" | "light" | "medium" | "semibold" | "demibold" | "extrabold" | "heavy" | "black" for best UI rendering!
+    <t>Error: Error in ButtonAnodiam: 'fontWeight' = '150' is invalid. It should be a valid permitted value from react-native's TextStyle['fontWeight']: "bold" | "normal" | "100" | "200" | "300" | "400" | "500" | "600" | "700" | "800" | "900" | 100 | 200 | 300 | 400 | 500 | 600 | 700 | 800 | 900 | "ultralight" | "thin" | "light" | "medium" | "semibold" | "demibold" | "extrabold" | "heavy" | "black" for best UI rendering!
     at raiseIssue (D:\SyanGypsee\ComponentsV1.0\UI\PackageDev\ui\utils\Validation.ts:51:13)
     at raiseIssue (D:\SyanGypsee\ComponentsV1.0\UI\PackageDev\ui\utils\Validation.ts:215:13)
     at Array.forEach (&lt;anonymous&gt;)
@@ -2028,7 +2032,7 @@
     <t>humongous - Invalid fontWeight renders normal and logs warning</t>
   </si>
   <si>
-    <t xml:space="preserve">Error: [2mexpect([22m[31mjest.fn()[39m[2m).[22mtoHaveBeenCalledWith[2m([22m[32m...expected[39m[2m)[22m
+    <t>Error: [2mexpect([22m[31mjest.fn()[39m[2m).[22mtoHaveBeenCalledWith[2m([22m[32m...expected[39m[2m)[22m
 Expected: [32mStringContaining "Warning in ButtonAnodiam: 'fontWeight' = 'humongous' is invalid"[39m
 Received
        1: [31m"Warning in ButtonAnodiam: 'buttonText' = ' of length = 0 chars' is invalid. It should be a valid string of 2 to 32 characters for best UI rendering!"[39m
@@ -2055,7 +2059,7 @@
     <t>extrabold - Invalid fontWeight renders normal and logs warning</t>
   </si>
   <si>
-    <t xml:space="preserve">Error: [2mexpect([22m[31mjest.fn()[39m[2m).[22mtoHaveBeenCalledWith[2m([22m[32m...expected[39m[2m)[22m
+    <t>Error: [2mexpect([22m[31mjest.fn()[39m[2m).[22mtoHaveBeenCalledWith[2m([22m[32m...expected[39m[2m)[22m
 Expected: [32mStringContaining "Warning in ButtonAnodiam: 'fontWeight' = 'extrabold' is invalid"[39m
 Received
        1: [31m"Warning in ButtonAnodiam: 'buttonText' = ' of length = 0 chars' is invalid. It should be a valid string of 2 to 32 characters for best UI rendering!"[39m
@@ -2082,7 +2086,7 @@
     <t>black - Invalid fontWeight renders normal and logs warning</t>
   </si>
   <si>
-    <t xml:space="preserve">Error: [2mexpect([22m[31mjest.fn()[39m[2m).[22mtoHaveBeenCalledWith[2m([22m[32m...expected[39m[2m)[22m
+    <t>Error: [2mexpect([22m[31mjest.fn()[39m[2m).[22mtoHaveBeenCalledWith[2m([22m[32m...expected[39m[2m)[22m
 Expected: [32mStringContaining "Warning in ButtonAnodiam: 'fontWeight' = 'black' is invalid"[39m
 Received
        1: [31m"Warning in ButtonAnodiam: 'buttonText' = ' of length = 0 chars' is invalid. It should be a valid string of 2 to 32 characters for best UI rendering!"[39m
@@ -2109,7 +2113,7 @@
     <t>onPrsBtnAnodiam triggers console log when pressed</t>
   </si>
   <si>
-    <t xml:space="preserve">Error: Unable to find an element with testID: button-anodiam
+    <t>Error: Unable to find an element with testID: button-anodiam
 [36m&lt;View[39m
   [33maccessible[39m=[32m{true}[39m
 [36m&gt;[39m
@@ -2142,7 +2146,7 @@
     <t>onPrsBtnAnodiam with invalid type logs error</t>
   </si>
   <si>
-    <t xml:space="preserve">Error: [2mexpect([22m[31mjest.fn()[39m[2m).[22mtoHaveBeenCalledWith[2m([22m[32m...expected[39m[2m)[22m
+    <t>Error: [2mexpect([22m[31mjest.fn()[39m[2m).[22mtoHaveBeenCalledWith[2m([22m[32m...expected[39m[2m)[22m
 Expected: [32mStringContaining "Error in ButtonAnodiam: 'onPrsBtnAnodiam' = '619' is invalid"[39m
 Received
        1: [31m"The above error occurred in the &lt;ButtonAnodiam&gt; component:·[39m
@@ -2177,7 +2181,7 @@
     <t>onPrsBtnAnodiam with null does nothing</t>
   </si>
   <si>
-    <t xml:space="preserve">Error: Unable to find an element with testID: button-anodiam
+    <t>Error: Unable to find an element with testID: button-anodiam
 [36m&lt;View[39m
   [33maccessible[39m=[32m{true}[39m
 [36m&gt;[39m
@@ -2213,7 +2217,7 @@
     <t>should throw console error for invalid textInputType as number</t>
   </si>
   <si>
-    <t xml:space="preserve">Error: [2mexpect([22m[31mjest.fn()[39m[2m).[22mtoHaveBeenCalledWith[2m([22m[32m...expected[39m[2m)[22m
+    <t>Error: [2mexpect([22m[31mjest.fn()[39m[2m).[22mtoHaveBeenCalledWith[2m([22m[32m...expected[39m[2m)[22m
 Expected: [32m"Error in TextInputAnodiam: 'fontFamily' = '123456' is invalid. It should be a valid option from ['','none', 'password', 'create-password', 'email', 'numeric'] for best UI rendering!"[39m
 Number of calls: [31m0[39m
     at Object.toHaveBeenCalledWith (D:\SyanGypsee\ComponentsV1.0\UI\PackageDev\test\TextInputAnodiam.test.js:23:27)
@@ -2236,7 +2240,7 @@
     <t>should render component with textInputType="email"</t>
   </si>
   <si>
-    <t xml:space="preserve">Error: Unable to find an element with placeholder: email
+    <t>Error: Unable to find an element with placeholder: email
 [36m&lt;View&gt;[39m
   [36m&lt;View&gt;[39m
     [36m&lt;View&gt;[39m
@@ -2285,7 +2289,7 @@
     <t>should render component with textInputType="numeric"</t>
   </si>
   <si>
-    <t xml:space="preserve">Error: Unable to find an element with placeholder: numeric
+    <t>Error: Unable to find an element with placeholder: numeric
 [36m&lt;View&gt;[39m
   [36m&lt;View&gt;[39m
     [36m&lt;View&gt;[39m
@@ -2334,7 +2338,7 @@
     <t>should render component with textInputType="create-password"</t>
   </si>
   <si>
-    <t xml:space="preserve">TypeError: loadedNativeFonts.forEach is not a function
+    <t>TypeError: loadedNativeFonts.forEach is not a function
     at forEach (D:\SyanGypsee\ComponentsV1.0\UI\PackageDev\node_modules\expo-font\src\memory.ts:21:23)
     at Object.isLoaded (D:\SyanGypsee\ComponentsV1.0\UI\PackageDev\node_modules\expo-font\src\Font.ts:27:24)
     at new isLoaded (D:\SyanGypsee\ComponentsV1.0\UI\PackageDev\node_modules\@expo\vector-icons\src\createIconSet.tsx:125:26)
@@ -2374,7 +2378,7 @@
     <t>should render component with none text box and console warning for invalid type="a"</t>
   </si>
   <si>
-    <t xml:space="preserve">Error: Unable to find an element with placeholder: none
+    <t>Error: Unable to find an element with placeholder: none
 [36m&lt;View&gt;[39m
   [36m&lt;View&gt;[39m
     [36m&lt;View&gt;[39m
@@ -2426,7 +2430,7 @@
     <t>should render with none text box for null value</t>
   </si>
   <si>
-    <t xml:space="preserve">Error: Error in TextInputAnodiam: 'textInputType' = 'null' is invalid. It should be a valid option from ['','none', 'password', 'create-password', 'email', 'numeric'] for best UI rendering!
+    <t>Error: Error in TextInputAnodiam: 'textInputType' = 'null' is invalid. It should be a valid option from ['','none', 'password', 'create-password', 'email', 'numeric'] for best UI rendering!
     at raiseIssue (D:\SyanGypsee\ComponentsV1.0\UI\PackageDev\ui\utils\Validation.ts:51:13)
     at raiseIssue (D:\SyanGypsee\ComponentsV1.0\UI\PackageDev\ui\utils\Validation.ts:483:13)
     at Array.forEach (&lt;anonymous&gt;)
@@ -2465,7 +2469,7 @@
     <t>should render with none text box for undefined value</t>
   </si>
   <si>
-    <t xml:space="preserve">Error: Unable to find an element with placeholder: none
+    <t>Error: Unable to find an element with placeholder: none
 [36m&lt;View&gt;[39m
   [36m&lt;View&gt;[39m
     [36m&lt;View&gt;[39m
@@ -2517,7 +2521,7 @@
     <t>renders with empty label and shows warning</t>
   </si>
   <si>
-    <t xml:space="preserve">Error: [2mexpect([22m[31mjest.fn()[39m[2m).[22mtoHaveBeenCalledWith[2m([22m[32m...expected[39m[2m)[22m
+    <t>Error: [2mexpect([22m[31mjest.fn()[39m[2m).[22mtoHaveBeenCalledWith[2m([22m[32m...expected[39m[2m)[22m
 Expected: [32m"Warning in TextInputAnodiam: 'labelText' = '' is invalid. It should be a valid string of length 2 to 32 characters for best UI rendering!"[39m
 Received: [31m"Warning in LabelAnodiam: 'labelText' = '' is invalid. It should be a valid string of length 2 to 256 characters for best UI rendering!"[39m
 Number of calls: [31m1[39m
@@ -2540,7 +2544,7 @@
     <t>renders with label "A" and shows warning</t>
   </si>
   <si>
-    <t xml:space="preserve">Error: [2mexpect([22m[31mjest.fn()[39m[2m).[22mtoHaveBeenCalledWith[2m([22m[32m...expected[39m[2m)[22m
+    <t>Error: [2mexpect([22m[31mjest.fn()[39m[2m).[22mtoHaveBeenCalledWith[2m([22m[32m...expected[39m[2m)[22m
 Expected: [32m"Warning in TextInputAnodiam: 'labelText' = 'A' is invalid. It should be a valid string of length 2 to 32 characters for best UI rendering!"[39m
 Received
        1: [31m"Warning in TextInputAnodiam: 'textInputLabel' = 'A of length = 1 chars' is invalid. It should be a valid string of 2 to 32 characters for best UI rendering!"[39m
@@ -2566,7 +2570,7 @@
     <t>throws error for numeric label</t>
   </si>
   <si>
-    <t xml:space="preserve">Error: [2mexpect([22m[31mjest.fn()[39m[2m).[22mtoHaveBeenCalledWith[2m([22m[32m...expected[39m[2m)[22m
+    <t>Error: [2mexpect([22m[31mjest.fn()[39m[2m).[22mtoHaveBeenCalledWith[2m([22m[32m...expected[39m[2m)[22m
 Expected: [32m"Error in TextInputAnodiam: 'textInputLabel' = '123456' is invalid. It should be a valid non-null string for best UI rendering!"[39m
 Received: [31m"The above error occurred in the &lt;TextInputAnodiam&gt; component:·[39m
 [31m    at TextInputAnodiam (D:\\SyanGypsee\\ComponentsV1.0\\UI\\PackageDev\\ui\\TextInputAnodiam.tsx:41:37)·[39m
@@ -2601,7 +2605,7 @@
     <t>renders mandatory text box</t>
   </si>
   <si>
-    <t xml:space="preserve">Error: Unable to find an element with accessibility label: mandatory
+    <t>Error: Unable to find an element with accessibility label: mandatory
 [36m&lt;View&gt;[39m
   [36m&lt;View&gt;[39m
     [36m&lt;View&gt;[39m
@@ -2652,7 +2656,7 @@
     <t>renders non-mandatory text box</t>
   </si>
   <si>
-    <t xml:space="preserve">Error: Unable to find an element with accessibility label: normal non-mandatory
+    <t>Error: Unable to find an element with accessibility label: normal non-mandatory
 [36m&lt;View&gt;[39m
   [36m&lt;View&gt;[39m
     [36m&lt;View&gt;[39m
@@ -2704,7 +2708,7 @@
     <t>renders with empty label and logs warning</t>
   </si>
   <si>
-    <t xml:space="preserve">Error: [2mexpect([22m[31mjest.fn()[39m[2m).[22mtoHaveBeenCalledWith[2m([22m[32m...expected[39m[2m)[22m
+    <t>Error: [2mexpect([22m[31mjest.fn()[39m[2m).[22mtoHaveBeenCalledWith[2m([22m[32m...expected[39m[2m)[22m
 Expected: [32mStringContaining "Warning in TextInputAnodiam: 'labelText' = 'A' is invalid"[39m
 Received: [31m"Warning in LabelAnodiam: 'labelText' = '' is invalid. It should be a valid string of length 2 to 256 characters for best UI rendering!"[39m
 Number of calls: [31m1[39m
@@ -2733,7 +2737,7 @@
     <t>renders mandatory text box when mandatory is TRUE</t>
   </si>
   <si>
-    <t xml:space="preserve">Error: Unable to find an element with testID: mandatory-input
+    <t>Error: Unable to find an element with testID: mandatory-input
 [36m&lt;View&gt;[39m
   [36m&lt;View&gt;[39m
     [36m&lt;View&gt;[39m
@@ -2784,7 +2788,7 @@
     <t>renders non-mandatory text box when mandatory is FALSE</t>
   </si>
   <si>
-    <t xml:space="preserve">Error: Unable to find an element with testID: normal-input
+    <t>Error: Unable to find an element with testID: normal-input
 [36m&lt;View&gt;[39m
   [36m&lt;View&gt;[39m
     [36m&lt;View&gt;[39m
@@ -2833,7 +2837,7 @@
     <t>renders Anodiam-Bold fontFamily</t>
   </si>
   <si>
-    <t xml:space="preserve">Error: Unable to find an element with testID: text-input
+    <t>Error: Unable to find an element with testID: text-input
 [36m&lt;View&gt;[39m
   [36m&lt;View&gt;[39m
     [36m&lt;View&gt;[39m
@@ -2882,7 +2886,7 @@
     <t>renders default font family for invalid font</t>
   </si>
   <si>
-    <t xml:space="preserve">Error: Unable to find an element with testID: text-input
+    <t>Error: Unable to find an element with testID: text-input
 [36m&lt;View&gt;[39m
   [36m&lt;View&gt;[39m
     [36m&lt;View&gt;[39m
@@ -2931,7 +2935,7 @@
     <t>throws error for invalid fontSize</t>
   </si>
   <si>
-    <t xml:space="preserve">Error: Error in TextInputAnodiam: 'fontSize' = '3' is invalid. It should be a valid positive number between 8 and 32 for best UI rendering!
+    <t>Error: Error in TextInputAnodiam: 'fontSize' = '3' is invalid. It should be a valid positive number between 8 and 32 for best UI rendering!
     at raiseIssue (D:\SyanGypsee\ComponentsV1.0\UI\PackageDev\ui\utils\Validation.ts:51:13)
     at raiseIssue (D:\SyanGypsee\ComponentsV1.0\UI\PackageDev\ui\utils\Validation.ts:195:13)
     at Array.forEach (&lt;anonymous&gt;)
@@ -2970,7 +2974,7 @@
     <t>renders with { fontSize: 5 }</t>
   </si>
   <si>
-    <t xml:space="preserve">Error: Unable to find an element with text: 5 fontSize
+    <t>Error: Unable to find an element with text: 5 fontSize
 [36m&lt;View&gt;[39m
   [36m&lt;View&gt;[39m
     [36m&lt;View&gt;[39m
@@ -3020,7 +3024,7 @@
     <t>renders with { fontSize: 8 }</t>
   </si>
   <si>
-    <t xml:space="preserve">Error: Unable to find an element with text: 8 fontSize
+    <t>Error: Unable to find an element with text: 8 fontSize
 [36m&lt;View&gt;[39m
   [36m&lt;View&gt;[39m
     [36m&lt;View&gt;[39m
@@ -3070,7 +3074,7 @@
     <t>renders with { fontSize: 16 }</t>
   </si>
   <si>
-    <t xml:space="preserve">Error: Unable to find an element with text: 16 fontSize
+    <t>Error: Unable to find an element with text: 16 fontSize
 [36m&lt;View&gt;[39m
   [36m&lt;View&gt;[39m
     [36m&lt;View&gt;[39m
@@ -3120,7 +3124,7 @@
     <t>renders with { fontSize: 33 }</t>
   </si>
   <si>
-    <t xml:space="preserve">Error: Unable to find an element with text: 33 fontSize
+    <t>Error: Unable to find an element with text: 33 fontSize
 [36m&lt;View&gt;[39m
   [36m&lt;View&gt;[39m
     [36m&lt;View&gt;[39m
@@ -3170,7 +3174,7 @@
     <t>renders with { fontSize: '16' }</t>
   </si>
   <si>
-    <t xml:space="preserve">Error: Error in TextInputAnodiam: 'fontSize' = '16' is invalid. It should be a valid positive number between 8 and 32 for best UI rendering!
+    <t>Error: Error in TextInputAnodiam: 'fontSize' = '16' is invalid. It should be a valid positive number between 8 and 32 for best UI rendering!
     at raiseIssue (D:\SyanGypsee\ComponentsV1.0\UI\PackageDev\ui\utils\Validation.ts:51:13)
     at raiseIssue (D:\SyanGypsee\ComponentsV1.0\UI\PackageDev\ui\utils\Validation.ts:195:13)
     at Array.forEach (&lt;anonymous&gt;)
@@ -3220,7 +3224,7 @@
     <t>renders color with { color: 'Colors.RED' }</t>
   </si>
   <si>
-    <t xml:space="preserve">Error: Unable to find an element with text: #FF0000
+    <t>Error: Unable to find an element with text: #FF0000
 [36m&lt;View&gt;[39m
   [36m&lt;View&gt;[39m
     [36m&lt;View&gt;[39m
@@ -3273,7 +3277,7 @@
     <t>renders color with { color: 'red' }</t>
   </si>
   <si>
-    <t xml:space="preserve">Error: Unable to find an element with text: red
+    <t>Error: Unable to find an element with text: red
 [36m&lt;View&gt;[39m
   [36m&lt;View&gt;[39m
     [36m&lt;View&gt;[39m
@@ -3323,7 +3327,7 @@
     <t>renders color with { color: 'pink' }</t>
   </si>
   <si>
-    <t xml:space="preserve">Error: Unable to find an element with text: pink
+    <t>Error: Unable to find an element with text: pink
 [36m&lt;View&gt;[39m
   [36m&lt;View&gt;[39m
     [36m&lt;View&gt;[39m
@@ -3373,7 +3377,7 @@
     <t>renders color with { color: 123456 }</t>
   </si>
   <si>
-    <t xml:space="preserve">Error: Error in TextInputAnodiam: 'color' = '123456' is invalid. It should be a valid non-null string for best UI rendering!
+    <t>Error: Error in TextInputAnodiam: 'color' = '123456' is invalid. It should be a valid non-null string for best UI rendering!
     at raiseIssue (D:\SyanGypsee\ComponentsV1.0\UI\PackageDev\ui\utils\Validation.ts:51:13)
     at raiseIssue (D:\SyanGypsee\ComponentsV1.0\UI\PackageDev\ui\utils\Validation.ts:74:13)
     at Array.forEach (&lt;anonymous&gt;)
@@ -3414,7 +3418,7 @@
     <t>renders color with { color: '#xyz123' }</t>
   </si>
   <si>
-    <t xml:space="preserve">Error: Unable to find an element with text: #FF8C53
+    <t>Error: Unable to find an element with text: #FF8C53
 [36m&lt;View&gt;[39m
   [36m&lt;View&gt;[39m
     [36m&lt;View&gt;[39m
@@ -3473,7 +3477,7 @@
     <t>renders placeholderTextColor with { placeholderTextColor: '#FF0000' }</t>
   </si>
   <si>
-    <t xml:space="preserve">Error: Unable to find an element with text: #FF0000
+    <t>Error: Unable to find an element with text: #FF0000
 [36m&lt;View&gt;[39m
   [36m&lt;View&gt;[39m
     [36m&lt;View&gt;[39m
@@ -3523,7 +3527,7 @@
     <t>renders placeholderTextColor with { placeholderTextColor: 'red' }</t>
   </si>
   <si>
-    <t xml:space="preserve">Error: Unable to find an element with text: red
+    <t>Error: Unable to find an element with text: red
 [36m&lt;View&gt;[39m
   [36m&lt;View&gt;[39m
     [36m&lt;View&gt;[39m
@@ -3573,7 +3577,7 @@
     <t>renders placeholderTextColor with { placeholderTextColor: 'pink' }</t>
   </si>
   <si>
-    <t xml:space="preserve">Error: Unable to find an element with text: pink
+    <t>Error: Unable to find an element with text: pink
 [36m&lt;View&gt;[39m
   [36m&lt;View&gt;[39m
     [36m&lt;View&gt;[39m
@@ -3623,7 +3627,7 @@
     <t>renders placeholderTextColor with { placeholderTextColor: 123456 }</t>
   </si>
   <si>
-    <t xml:space="preserve">Error: Error in TextInputAnodiam: 'placeholderTextColor' = '123456' is invalid. It should be a valid non-null string for best UI rendering!
+    <t>Error: Error in TextInputAnodiam: 'placeholderTextColor' = '123456' is invalid. It should be a valid non-null string for best UI rendering!
     at raiseIssue (D:\SyanGypsee\ComponentsV1.0\UI\PackageDev\ui\utils\Validation.ts:51:13)
     at raiseIssue (D:\SyanGypsee\ComponentsV1.0\UI\PackageDev\ui\utils\Validation.ts:74:13)
     at Array.forEach (&lt;anonymous&gt;)
@@ -3664,7 +3668,7 @@
     <t>renders placeholderTextColor with { placeholderTextColor: '#xyz123' }</t>
   </si>
   <si>
-    <t xml:space="preserve">Error: Unable to find an element with text: #777
+    <t>Error: Unable to find an element with text: #777
 [36m&lt;View&gt;[39m
   [36m&lt;View&gt;[39m
     [36m&lt;View&gt;[39m
@@ -3723,7 +3727,7 @@
     <t>renders validationFontSize with { validationFontSize: 3 }</t>
   </si>
   <si>
-    <t xml:space="preserve">Error: Error in TextInputAnodiam: 'validationFontSize' = '3' is invalid. It should be a valid positive number between 8 and 32 for best UI rendering!
+    <t>Error: Error in TextInputAnodiam: 'validationFontSize' = '3' is invalid. It should be a valid positive number between 8 and 32 for best UI rendering!
     at raiseIssue (D:\SyanGypsee\ComponentsV1.0\UI\PackageDev\ui\utils\Validation.ts:51:13)
     at raiseIssue (D:\SyanGypsee\ComponentsV1.0\UI\PackageDev\ui\utils\Validation.ts:195:13)
     at Array.forEach (&lt;anonymous&gt;)
@@ -3764,7 +3768,7 @@
     <t>renders validationFontSize with { validationFontSize: 5 }</t>
   </si>
   <si>
-    <t xml:space="preserve">Error: Unable to find an element with text: 5
+    <t>Error: Unable to find an element with text: 5
 [36m&lt;View&gt;[39m
   [36m&lt;View&gt;[39m
     [36m&lt;View&gt;[39m
@@ -3814,7 +3818,7 @@
     <t>should render validationFontSize 8</t>
   </si>
   <si>
-    <t xml:space="preserve">ReferenceError: types is not defined
+    <t>ReferenceError: types is not defined
     at types (D:\SyanGypsee\ComponentsV1.0\UI\PackageDev\test\TextInputAnodiam.test.js:238:67)
     at Object.&lt;anonymous&gt; (D:\SyanGypsee\ComponentsV1.0\UI\PackageDev\node_modules\jest-each\build\bind.js:81:13)
     at Promise.then.completed (D:\SyanGypsee\ComponentsV1.0\UI\PackageDev\node_modules\jest-circus\build\utils.js:298:28)
@@ -3847,7 +3851,7 @@
     <t>should render borderRadius 50</t>
   </si>
   <si>
-    <t xml:space="preserve">ReferenceError: types is not defined
+    <t>ReferenceError: types is not defined
     at types (D:\SyanGypsee\ComponentsV1.0\UI\PackageDev\test\TextInputAnodiam.test.js:266:61)
     at Object.&lt;anonymous&gt; (D:\SyanGypsee\ComponentsV1.0\UI\PackageDev\node_modules\jest-each\build\bind.js:81:13)
     at Promise.then.completed (D:\SyanGypsee\ComponentsV1.0\UI\PackageDev\node_modules\jest-circus\build\utils.js:298:28)
@@ -3883,7 +3887,7 @@
     <t>should render borderWidth 4</t>
   </si>
   <si>
-    <t xml:space="preserve">ReferenceError: types is not defined
+    <t>ReferenceError: types is not defined
     at types (D:\SyanGypsee\ComponentsV1.0\UI\PackageDev\test\TextInputAnodiam.test.js:294:60)
     at Object.&lt;anonymous&gt; (D:\SyanGypsee\ComponentsV1.0\UI\PackageDev\node_modules\jest-each\build\bind.js:81:13)
     at Promise.then.completed (D:\SyanGypsee\ComponentsV1.0\UI\PackageDev\node_modules\jest-circus\build\utils.js:298:28)
@@ -3934,37 +3938,55 @@
     <t>Start Time</t>
   </si>
   <si>
-    <t>2025-03-07 10:05:20</t>
-  </si>
-  <si>
     <t>End Time</t>
-  </si>
-  <si>
-    <t>2025-03-11 04:22:15</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <color theme="1"/>
+      <name val="Oxygen"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -3972,12 +3994,34 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="22" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4316,9 +4360,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F247"/>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="30" customWidth="1"/>
     <col min="2" max="2" width="40" customWidth="1"/>
@@ -4327,7 +4374,7 @@
     <col min="6" max="6" width="50" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4347,7 +4394,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -4367,7 +4414,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -4387,7 +4434,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -4407,7 +4454,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -4427,7 +4474,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -4447,7 +4494,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -4467,7 +4514,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -4487,7 +4534,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -4507,7 +4554,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -4527,7 +4574,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -4547,7 +4594,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -4567,7 +4614,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -4587,7 +4634,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -4607,7 +4654,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -4627,7 +4674,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>11</v>
       </c>
@@ -4647,7 +4694,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>11</v>
       </c>
@@ -4667,7 +4714,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>11</v>
       </c>
@@ -4687,7 +4734,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>11</v>
       </c>
@@ -4707,7 +4754,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>11</v>
       </c>
@@ -4727,7 +4774,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>11</v>
       </c>
@@ -4747,7 +4794,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>11</v>
       </c>
@@ -4767,7 +4814,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>11</v>
       </c>
@@ -4787,7 +4834,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>11</v>
       </c>
@@ -4807,7 +4854,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>11</v>
       </c>
@@ -4827,7 +4874,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>11</v>
       </c>
@@ -4847,7 +4894,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>11</v>
       </c>
@@ -4867,7 +4914,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>11</v>
       </c>
@@ -4887,7 +4934,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>11</v>
       </c>
@@ -4907,7 +4954,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>11</v>
       </c>
@@ -4927,7 +4974,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>11</v>
       </c>
@@ -4947,7 +4994,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>11</v>
       </c>
@@ -4967,7 +5014,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>11</v>
       </c>
@@ -4987,7 +5034,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>11</v>
       </c>
@@ -5007,7 +5054,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>11</v>
       </c>
@@ -5027,7 +5074,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>11</v>
       </c>
@@ -5047,7 +5094,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>11</v>
       </c>
@@ -5067,7 +5114,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>11</v>
       </c>
@@ -5087,7 +5134,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>11</v>
       </c>
@@ -5107,7 +5154,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>11</v>
       </c>
@@ -5127,7 +5174,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>11</v>
       </c>
@@ -5147,7 +5194,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>11</v>
       </c>
@@ -5167,7 +5214,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>11</v>
       </c>
@@ -5187,7 +5234,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>11</v>
       </c>
@@ -5207,7 +5254,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>11</v>
       </c>
@@ -5227,7 +5274,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>11</v>
       </c>
@@ -5247,7 +5294,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>11</v>
       </c>
@@ -5267,7 +5314,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>11</v>
       </c>
@@ -5287,7 +5334,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>11</v>
       </c>
@@ -5307,7 +5354,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>11</v>
       </c>
@@ -5327,7 +5374,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>11</v>
       </c>
@@ -5347,7 +5394,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>11</v>
       </c>
@@ -5367,7 +5414,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>11</v>
       </c>
@@ -5387,7 +5434,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>11</v>
       </c>
@@ -5407,7 +5454,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>11</v>
       </c>
@@ -5427,7 +5474,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>11</v>
       </c>
@@ -5447,7 +5494,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>11</v>
       </c>
@@ -5467,7 +5514,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>11</v>
       </c>
@@ -5487,7 +5534,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>11</v>
       </c>
@@ -5507,7 +5554,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>11</v>
       </c>
@@ -5527,7 +5574,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>11</v>
       </c>
@@ -5547,7 +5594,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>11</v>
       </c>
@@ -5567,7 +5614,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>11</v>
       </c>
@@ -5587,7 +5634,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>11</v>
       </c>
@@ -5607,7 +5654,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>11</v>
       </c>
@@ -5627,7 +5674,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>11</v>
       </c>
@@ -5647,7 +5694,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>11</v>
       </c>
@@ -5667,7 +5714,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>11</v>
       </c>
@@ -5687,7 +5734,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>11</v>
       </c>
@@ -5707,7 +5754,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>11</v>
       </c>
@@ -5727,7 +5774,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>11</v>
       </c>
@@ -5747,7 +5794,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>11</v>
       </c>
@@ -5767,7 +5814,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>11</v>
       </c>
@@ -5787,7 +5834,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>11</v>
       </c>
@@ -5807,7 +5854,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>11</v>
       </c>
@@ -5827,7 +5874,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>11</v>
       </c>
@@ -5847,7 +5894,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>11</v>
       </c>
@@ -5867,7 +5914,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>11</v>
       </c>
@@ -5887,7 +5934,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>11</v>
       </c>
@@ -5907,7 +5954,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>11</v>
       </c>
@@ -5927,7 +5974,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>11</v>
       </c>
@@ -5947,7 +5994,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>11</v>
       </c>
@@ -5967,7 +6014,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>11</v>
       </c>
@@ -5987,7 +6034,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>11</v>
       </c>
@@ -6007,7 +6054,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>11</v>
       </c>
@@ -6027,7 +6074,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>11</v>
       </c>
@@ -6047,7 +6094,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>11</v>
       </c>
@@ -6067,7 +6114,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>11</v>
       </c>
@@ -6087,7 +6134,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>11</v>
       </c>
@@ -6107,7 +6154,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>11</v>
       </c>
@@ -6127,7 +6174,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>11</v>
       </c>
@@ -6147,7 +6194,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>11</v>
       </c>
@@ -6167,7 +6214,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>11</v>
       </c>
@@ -6187,7 +6234,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>11</v>
       </c>
@@ -6207,7 +6254,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>11</v>
       </c>
@@ -6227,7 +6274,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>11</v>
       </c>
@@ -6247,7 +6294,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>11</v>
       </c>
@@ -6267,7 +6314,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>11</v>
       </c>
@@ -6287,7 +6334,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>11</v>
       </c>
@@ -6307,7 +6354,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>11</v>
       </c>
@@ -6327,7 +6374,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>11</v>
       </c>
@@ -6347,7 +6394,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>11</v>
       </c>
@@ -6367,7 +6414,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>141</v>
       </c>
@@ -6387,7 +6434,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>141</v>
       </c>
@@ -6407,7 +6454,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>141</v>
       </c>
@@ -6427,7 +6474,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>141</v>
       </c>
@@ -6447,7 +6494,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>141</v>
       </c>
@@ -6467,7 +6514,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>141</v>
       </c>
@@ -6487,7 +6534,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>141</v>
       </c>
@@ -6507,7 +6554,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>141</v>
       </c>
@@ -6527,7 +6574,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>141</v>
       </c>
@@ -6547,7 +6594,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>141</v>
       </c>
@@ -6567,7 +6614,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>141</v>
       </c>
@@ -6587,7 +6634,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>141</v>
       </c>
@@ -6607,7 +6654,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>141</v>
       </c>
@@ -6627,7 +6674,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>141</v>
       </c>
@@ -6647,7 +6694,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>141</v>
       </c>
@@ -6667,7 +6714,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>141</v>
       </c>
@@ -6687,7 +6734,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>141</v>
       </c>
@@ -6707,7 +6754,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>141</v>
       </c>
@@ -6727,7 +6774,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>141</v>
       </c>
@@ -6747,7 +6794,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>141</v>
       </c>
@@ -6767,7 +6814,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>141</v>
       </c>
@@ -6787,7 +6834,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>141</v>
       </c>
@@ -6807,7 +6854,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>141</v>
       </c>
@@ -6827,7 +6874,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>141</v>
       </c>
@@ -6847,7 +6894,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>141</v>
       </c>
@@ -6867,7 +6914,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>141</v>
       </c>
@@ -6887,7 +6934,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>141</v>
       </c>
@@ -6907,7 +6954,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>141</v>
       </c>
@@ -6927,7 +6974,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>141</v>
       </c>
@@ -6947,7 +6994,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>141</v>
       </c>
@@ -6967,7 +7014,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>141</v>
       </c>
@@ -6987,7 +7034,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>141</v>
       </c>
@@ -7007,7 +7054,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>141</v>
       </c>
@@ -7027,7 +7074,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>141</v>
       </c>
@@ -7047,7 +7094,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>141</v>
       </c>
@@ -7067,7 +7114,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>141</v>
       </c>
@@ -7087,7 +7134,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>141</v>
       </c>
@@ -7107,7 +7154,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>141</v>
       </c>
@@ -7127,7 +7174,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>141</v>
       </c>
@@ -7147,7 +7194,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>141</v>
       </c>
@@ -7167,7 +7214,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>141</v>
       </c>
@@ -7187,7 +7234,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>141</v>
       </c>
@@ -7207,7 +7254,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>141</v>
       </c>
@@ -7227,7 +7274,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>141</v>
       </c>
@@ -7247,7 +7294,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>141</v>
       </c>
@@ -7267,7 +7314,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>141</v>
       </c>
@@ -7287,7 +7334,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>141</v>
       </c>
@@ -7307,7 +7354,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>141</v>
       </c>
@@ -7327,7 +7374,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>141</v>
       </c>
@@ -7347,7 +7394,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>141</v>
       </c>
@@ -7367,7 +7414,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>141</v>
       </c>
@@ -7387,7 +7434,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>141</v>
       </c>
@@ -7407,7 +7454,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>141</v>
       </c>
@@ -7427,7 +7474,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>141</v>
       </c>
@@ -7447,7 +7494,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>141</v>
       </c>
@@ -7467,7 +7514,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>141</v>
       </c>
@@ -7487,7 +7534,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>141</v>
       </c>
@@ -7507,7 +7554,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>141</v>
       </c>
@@ -7527,7 +7574,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>141</v>
       </c>
@@ -7547,7 +7594,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>141</v>
       </c>
@@ -7567,7 +7614,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>141</v>
       </c>
@@ -7587,7 +7634,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>141</v>
       </c>
@@ -7607,7 +7654,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>141</v>
       </c>
@@ -7627,7 +7674,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>141</v>
       </c>
@@ -7647,7 +7694,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>141</v>
       </c>
@@ -7667,7 +7714,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>141</v>
       </c>
@@ -7687,7 +7734,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>141</v>
       </c>
@@ -7707,7 +7754,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>141</v>
       </c>
@@ -7727,7 +7774,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>141</v>
       </c>
@@ -7747,7 +7794,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>141</v>
       </c>
@@ -7767,7 +7814,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>141</v>
       </c>
@@ -7787,7 +7834,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>141</v>
       </c>
@@ -7807,7 +7854,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>141</v>
       </c>
@@ -7827,7 +7874,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>245</v>
       </c>
@@ -7847,7 +7894,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>245</v>
       </c>
@@ -7867,7 +7914,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>245</v>
       </c>
@@ -7887,7 +7934,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>245</v>
       </c>
@@ -7907,7 +7954,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>245</v>
       </c>
@@ -7927,7 +7974,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>245</v>
       </c>
@@ -7947,7 +7994,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>245</v>
       </c>
@@ -7967,7 +8014,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>245</v>
       </c>
@@ -7987,7 +8034,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>245</v>
       </c>
@@ -8007,7 +8054,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>245</v>
       </c>
@@ -8027,7 +8074,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>245</v>
       </c>
@@ -8047,7 +8094,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>245</v>
       </c>
@@ -8067,7 +8114,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>245</v>
       </c>
@@ -8087,7 +8134,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>245</v>
       </c>
@@ -8107,7 +8154,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>245</v>
       </c>
@@ -8127,7 +8174,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>245</v>
       </c>
@@ -8147,7 +8194,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>245</v>
       </c>
@@ -8167,7 +8214,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>245</v>
       </c>
@@ -8187,7 +8234,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>245</v>
       </c>
@@ -8207,7 +8254,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>245</v>
       </c>
@@ -8227,7 +8274,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>245</v>
       </c>
@@ -8247,7 +8294,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>245</v>
       </c>
@@ -8267,7 +8314,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>245</v>
       </c>
@@ -8287,7 +8334,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>245</v>
       </c>
@@ -8307,7 +8354,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>245</v>
       </c>
@@ -8327,7 +8374,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>245</v>
       </c>
@@ -8347,7 +8394,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>245</v>
       </c>
@@ -8367,7 +8414,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>245</v>
       </c>
@@ -8387,7 +8434,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>245</v>
       </c>
@@ -8407,7 +8454,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>245</v>
       </c>
@@ -8427,7 +8474,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>245</v>
       </c>
@@ -8447,7 +8494,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>245</v>
       </c>
@@ -8467,7 +8514,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>245</v>
       </c>
@@ -8487,7 +8534,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>245</v>
       </c>
@@ -8507,7 +8554,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>245</v>
       </c>
@@ -8527,7 +8574,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>245</v>
       </c>
@@ -8547,7 +8594,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>245</v>
       </c>
@@ -8567,7 +8614,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>245</v>
       </c>
@@ -8587,7 +8634,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>245</v>
       </c>
@@ -8607,7 +8654,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>245</v>
       </c>
@@ -8627,7 +8674,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>245</v>
       </c>
@@ -8647,7 +8694,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>245</v>
       </c>
@@ -8667,7 +8714,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>245</v>
       </c>
@@ -8687,7 +8734,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>245</v>
       </c>
@@ -8707,7 +8754,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>245</v>
       </c>
@@ -8727,7 +8774,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>245</v>
       </c>
@@ -8747,7 +8794,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>245</v>
       </c>
@@ -8767,7 +8814,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>245</v>
       </c>
@@ -8787,7 +8834,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>245</v>
       </c>
@@ -8807,7 +8854,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>245</v>
       </c>
@@ -8827,7 +8874,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>245</v>
       </c>
@@ -8847,7 +8894,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>245</v>
       </c>
@@ -8867,7 +8914,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>245</v>
       </c>
@@ -8887,7 +8934,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>245</v>
       </c>
@@ -8907,7 +8954,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>245</v>
       </c>
@@ -8927,7 +8974,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>245</v>
       </c>
@@ -8947,7 +8994,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>245</v>
       </c>
@@ -8967,7 +9014,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>245</v>
       </c>
@@ -8987,7 +9034,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>245</v>
       </c>
@@ -9007,7 +9054,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>245</v>
       </c>
@@ -9027,7 +9074,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>245</v>
       </c>
@@ -9047,7 +9094,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>245</v>
       </c>
@@ -9067,7 +9114,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>245</v>
       </c>
@@ -9087,7 +9134,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>245</v>
       </c>
@@ -9107,7 +9154,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>245</v>
       </c>
@@ -9127,7 +9174,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>245</v>
       </c>
@@ -9147,7 +9194,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>245</v>
       </c>
@@ -9167,7 +9214,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>245</v>
       </c>
@@ -9187,7 +9234,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>245</v>
       </c>
@@ -9207,7 +9254,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>245</v>
       </c>
@@ -9227,7 +9274,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>245</v>
       </c>
@@ -9247,7 +9294,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>245</v>
       </c>
@@ -9269,69 +9316,74 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="B2:C7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30" customWidth="1"/>
-    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="2" max="2" width="30" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C2" s="1" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B3" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="B2">
+      <c r="C3" s="2">
         <v>246</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B4" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="B3">
+      <c r="C4" s="3">
         <v>84</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B5" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="B4">
+      <c r="C5" s="4">
         <v>162</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B6" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C6" s="5">
+        <v>45723.420370370368</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B7" s="2" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>362</v>
-      </c>
-      <c r="B6" t="s">
-        <v>363</v>
+      <c r="C7" s="5">
+        <v>45727.182118055556</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>